--- a/201404.xlsx
+++ b/201404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susumuasaga/perdcomp_ressarc_ipi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADC7BFD-B47B-7442-B03A-9F6CCB708D3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313C4ECB-B936-2A45-8FF2-95C07CE77281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="860" windowWidth="18600" windowHeight="17040" activeTab="4" xr2:uid="{4A9628C8-80A8-DD42-AB3A-0E4CB9624D4D}"/>
+    <workbookView xWindow="4880" yWindow="860" windowWidth="23920" windowHeight="17040" xr2:uid="{4A9628C8-80A8-DD42-AB3A-0E4CB9624D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="E510" sheetId="2" r:id="rId1"/>
@@ -1985,9 +1985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9857CD20-2472-FC47-A6D7-FA161F0741A6}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1052.75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>1052.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>2226.12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>2226.12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>453.56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>453.56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>167.75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>167.75</v>
       </c>
     </row>
-    <row r="36" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>43</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>404.55</v>
       </c>
     </row>
-    <row r="41" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
@@ -50787,7 +50787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDDC4E2-60B8-1140-9DC9-CCC311D5E519}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
